--- a/LRN.ExcelGenerator/TemplateFiles/LISMaster_Template.xlsx
+++ b/LRN.ExcelGenerator/TemplateFiles/LISMaster_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\source\LabRevenueNavigator\LabRevenueNavigator\LRN.ExcelGenerator\TemplateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\source\Files\TemplatePath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA8738-041A-429A-85D8-BFCBF5AD76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0EA7FF-3EA2-442B-BD20-28C846158A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="527" xr2:uid="{7C2EE934-F145-4831-85E5-9CAFDC81F573}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Specimen ID</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Panel Category</t>
+  </si>
+  <si>
+    <t>PanelGroup</t>
   </si>
 </sst>
 </file>
@@ -567,43 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF67CC99-8EC6-4744-994E-3C8A5093063E}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,15 +647,18 @@
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
